--- a/2020 PSC Program.xlsx
+++ b/2020 PSC Program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF40A8-D288-4B13-894B-7DDE9CD6AC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749AB3D-3546-4BEA-BCD1-58B2ED152098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>N</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>6.0, 6.2</t>
+  </si>
+  <si>
+    <t>yyy</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -615,6 +618,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -629,7 +641,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -726,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1050,7 +1065,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1226,6 +1241,9 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
+      <c r="J7" s="33" t="s">
+        <v>111</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
